--- a/master.xlsx
+++ b/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkero\OneDrive\経済ファイル\02_分析\91_EDINET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5240E95E-F82B-49E8-8825-08D236F0E046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2C560-7008-42A5-83B1-6680B3224E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F997356B-74F7-4870-8078-F368CF071A93}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="204">
   <si>
     <t>現金及び預金</t>
   </si>
@@ -320,24 +320,332 @@
     <t>E38714</t>
   </si>
   <si>
+    <t>firm_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社三菱ＵＦＪフィナンシャル・グループ</t>
+  </si>
+  <si>
+    <t>株式会社三井住友フィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社京都フィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>firm_ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>firm_name</t>
+    <t>E03610</t>
+  </si>
+  <si>
+    <t>E03611</t>
+  </si>
+  <si>
+    <t>E03615</t>
+  </si>
+  <si>
+    <t>E03618</t>
+  </si>
+  <si>
+    <t>E03622</t>
+  </si>
+  <si>
+    <t>E03624</t>
+  </si>
+  <si>
+    <t>E23187</t>
+  </si>
+  <si>
+    <t>E23250</t>
+  </si>
+  <si>
+    <t>E23820</t>
+  </si>
+  <si>
+    <t>E26686</t>
+  </si>
+  <si>
+    <t>E30103</t>
+  </si>
+  <si>
+    <t>E30746</t>
+  </si>
+  <si>
+    <t>E31612</t>
+  </si>
+  <si>
+    <t>E32022</t>
+  </si>
+  <si>
+    <t>E32447</t>
+  </si>
+  <si>
+    <t>E33693</t>
+  </si>
+  <si>
+    <t>E33701</t>
+  </si>
+  <si>
+    <t>E34113</t>
+  </si>
+  <si>
+    <t>E35810</t>
+  </si>
+  <si>
+    <t>E36700</t>
+  </si>
+  <si>
+    <t>E36703</t>
+  </si>
+  <si>
+    <t>E36730</t>
+  </si>
+  <si>
+    <t>E37412</t>
+  </si>
+  <si>
+    <t>E37725</t>
+  </si>
+  <si>
+    <t>E37777</t>
+  </si>
+  <si>
+    <t>E37781</t>
+  </si>
+  <si>
+    <t>E37785</t>
+  </si>
+  <si>
+    <t>株式会社　りそなホールディングス</t>
+  </si>
+  <si>
+    <t>三井住友トラストグループ株式会社</t>
+  </si>
+  <si>
+    <t>株式会社みずほフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社ほくほくフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社山口フィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社ふくおかフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>フィデアホールディングス株式会社</t>
+  </si>
+  <si>
+    <t>株式会社池田泉州ホールディングス</t>
+  </si>
+  <si>
+    <t>トモニホールディングス株式会社</t>
+  </si>
+  <si>
+    <t>株式会社じもとホールディングス</t>
+  </si>
+  <si>
+    <t>株式会社めぶきフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社東京きらぼしフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社九州フィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社コンコルディア・フィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社西日本フィナンシャルホールディングス</t>
+  </si>
+  <si>
+    <t>株式会社三十三フィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社関西みらいフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社第四北越フィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社ひろぎんホールディングス</t>
+  </si>
+  <si>
+    <t>株式会社北國フィナンシャルホールディングス</t>
+  </si>
+  <si>
+    <t>株式会社十六フィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社おきなわフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社プロクレアホールディングス</t>
+  </si>
+  <si>
+    <t>株式会社いよぎんホールディングス</t>
+  </si>
+  <si>
+    <t>株式会社しずおかフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社あいちフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>株式会社ちゅうぎんフィナンシャルグループ</t>
+  </si>
+  <si>
+    <t>仮払金</t>
+  </si>
+  <si>
+    <t>未収消費税等</t>
+  </si>
+  <si>
+    <t>投資損失引当金</t>
+  </si>
+  <si>
+    <t>関係会社長期借入金</t>
+  </si>
+  <si>
+    <t>役員株式給付引当金、固定負債</t>
+  </si>
+  <si>
+    <t>有価証券</t>
+  </si>
+  <si>
+    <t>株式給付引当金、固定負債</t>
+  </si>
+  <si>
+    <t>その他（純額）、有形固定資産</t>
+  </si>
+  <si>
+    <t>前払年金費用、投資その他の資産</t>
+  </si>
+  <si>
+    <t>前受収益</t>
+  </si>
+  <si>
+    <t>退職給付引当金</t>
+  </si>
+  <si>
+    <t>利益準備金</t>
+  </si>
+  <si>
+    <t>その他利益剰余金</t>
+  </si>
+  <si>
+    <t>未払配当金</t>
+  </si>
+  <si>
+    <t>工具、器具及び備品</t>
+  </si>
+  <si>
+    <t>リース資産、有形固定資産</t>
+  </si>
+  <si>
+    <t>ソフトウエア仮勘定</t>
+  </si>
+  <si>
+    <t>社債発行費、繰延資産</t>
+  </si>
+  <si>
+    <t>繰延資産</t>
+  </si>
+  <si>
+    <t>契約負債</t>
+  </si>
+  <si>
+    <t>短期社債</t>
+  </si>
+  <si>
+    <t>リース債務、負債の部</t>
+  </si>
+  <si>
+    <t>車両運搬具（純額）</t>
+  </si>
+  <si>
+    <t>貯蔵品</t>
+  </si>
+  <si>
+    <t>敷金</t>
+  </si>
+  <si>
+    <t>株式交付費、繰延資産</t>
+  </si>
+  <si>
+    <t>預け金</t>
+  </si>
+  <si>
+    <t>仮受金</t>
+  </si>
+  <si>
+    <t>開発費、繰延資産</t>
+  </si>
+  <si>
+    <t>減価償却累計額、有形固定資産、一括控除</t>
+  </si>
+  <si>
+    <t>長期預り金</t>
+  </si>
+  <si>
+    <t>前受金</t>
+  </si>
+  <si>
+    <t>株式報酬引当金、固定負債</t>
+  </si>
+  <si>
+    <t>債務保証損失引当金</t>
+  </si>
+  <si>
+    <t>長期前受収益</t>
+  </si>
+  <si>
+    <t>その他、有形固定資産</t>
+  </si>
+  <si>
+    <t>差入保証金、投資その他の資産</t>
+  </si>
+  <si>
+    <t>長期未収入金</t>
+  </si>
+  <si>
+    <t>減価償却累計額、建物</t>
+  </si>
+  <si>
+    <t>長期未払金</t>
+  </si>
+  <si>
+    <t>金銭の信託、流動資産</t>
+  </si>
+  <si>
+    <t>役員退職慰労引当金</t>
+  </si>
+  <si>
+    <t>CurrentYearInstant_NonConsolidatedMember_ValuationAndTranslationAdjustmentsMember</t>
+  </si>
+  <si>
+    <t>純資産13</t>
+  </si>
+  <si>
+    <t>純資産13</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株式会社三菱ＵＦＪフィナンシャル・グループ</t>
-  </si>
-  <si>
-    <t>株式会社三井住友フィナンシャルグループ</t>
-  </si>
-  <si>
-    <t>株式会社京都フィナンシャルグループ</t>
-  </si>
-  <si>
-    <t>item_name</t>
+    <t>CurrentYearInstant_NonConsolidatedMember_LegalRetainedEarningsMember</t>
+  </si>
+  <si>
+    <t>純資産14</t>
+  </si>
+  <si>
+    <t>純資産14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -715,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590067D6-20F9-48F5-AB2E-D806C5679C25}">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -729,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1053,78 +1361,298 @@
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
-        <v>52</v>
+      <c r="A66" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1" t="s">
-        <v>53</v>
+      <c r="A67" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
+      <c r="A68" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
+      <c r="A69" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
+      <c r="A70" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
+      <c r="A71" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
+      <c r="A72" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
+      <c r="A73" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
+      <c r="A74" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
+      <c r="A75" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
+      <c r="A76" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
+      <c r="A77" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
+      <c r="A78" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="1" t="s">
-        <v>91</v>
+      <c r="A79" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1135,11 +1663,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B7C8AB-D295-4F70-9E69-98BCA3BDF787}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1252,6 +1780,22 @@
         <v>91</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1260,47 +1804,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6331F679-C915-4B1E-A8E1-1998D6303C09}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
         <v>99</v>
       </c>
     </row>
